--- a/DMD_Prototype/wwwroot/Common/Templates/TravelerP1.xlsx
+++ b/DMD_Prototype/wwwroot/Common/Templates/TravelerP1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jtoledo\Desktop\Files\test\DMD_Prototype\DMD_Prototype\wwwroot\Common\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C24F99-483F-482A-86D9-A2AB78171B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC9B49-5004-40A9-BCB6-931E204105E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C591D0B0-3B34-4D6D-B941-C63919DEF733}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TESTING TRAVELER</t>
   </si>
@@ -214,12 +214,6 @@
     </r>
   </si>
   <si>
-    <t>ATS-TMX-TRV-004</t>
-  </si>
-  <si>
-    <t>ATS-MTI-MX-004</t>
-  </si>
-  <si>
     <r>
       <t>ASSEMBLY</t>
     </r>
@@ -259,9 +253,6 @@
       </rPr>
       <t>NUMBER</t>
     </r>
-  </si>
-  <si>
-    <t>8332812-001</t>
   </si>
   <si>
     <t>REVISION</t>
@@ -277,7 +268,70 @@
         <rFont val="Calibri Light"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
     </r>
     <r>
       <rPr>
@@ -295,36 +349,16 @@
         <rFont val="Calibri Light"/>
         <family val="2"/>
       </rPr>
-      <t>of</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>A</t>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -342,96 +376,6 @@
         <rFont val="Calibri Light"/>
         <family val="2"/>
       </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
       <t>C</t>
     </r>
     <r>
@@ -478,71 +422,6 @@
         <family val="2"/>
       </rPr>
       <t>ON</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VAC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>PROCESSOR,X8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>W/SENSOR</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>PCB</t>
     </r>
   </si>
   <si>
@@ -1042,7 +921,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,13 +988,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1208,67 +1080,67 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1636,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB7EE52-04B3-45AD-915E-D1C65F6A33AB}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1651,217 +1523,205 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="18" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="19" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="18" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="22" t="s">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="24">
-        <v>1</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="1" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>9</v>
       </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
+      <c r="B9" s="16" t="s">
+        <v>12</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>18</v>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>13</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="9" t="s">
-        <v>19</v>
+      <c r="H9" s="22" t="s">
+        <v>14</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
+      <c r="A18" s="24" t="s">
+        <v>15</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1869,11 +1729,45 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:I7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -1885,40 +1779,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:I7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
